--- a/bshe/VIS_opf/ieee39_vis_base.xlsx
+++ b/bshe/VIS_opf/ieee39_vis_base.xlsx
@@ -16,9 +16,10 @@
     <sheet name="IEEEX1" sheetId="11" r:id="rId11"/>
     <sheet name="IEEEST" sheetId="12" r:id="rId12"/>
     <sheet name="BusFreq" sheetId="13" r:id="rId13"/>
-    <sheet name="ACEc" sheetId="14" r:id="rId14"/>
-    <sheet name="Toggler" sheetId="15" r:id="rId15"/>
-    <sheet name="COI" sheetId="16" r:id="rId16"/>
+    <sheet name="BusROCOF" sheetId="14" r:id="rId14"/>
+    <sheet name="ACEc" sheetId="15" r:id="rId15"/>
+    <sheet name="Toggler" sheetId="16" r:id="rId16"/>
+    <sheet name="COI" sheetId="17" r:id="rId17"/>
   </sheets>
 </workbook>
 </file>
@@ -3769,6 +3770,223 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>uid</v>
+      </c>
+      <c r="B1" t="str">
+        <v>u</v>
+      </c>
+      <c r="C1" t="str">
+        <v>idx</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>bus</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Tf</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Tw</v>
+      </c>
+      <c r="H1" t="str">
+        <v>fn</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Tr</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>BusROCOF_1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VSG_1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>30</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="G2" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="H2" t="str">
+        <v>60</v>
+      </c>
+      <c r="I2" t="str">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>BusROCOF_2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>VSG_2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>35</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="H3" t="str">
+        <v>60</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>BusROCOF_3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>VSG_3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>37</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="H4" t="str">
+        <v>60</v>
+      </c>
+      <c r="I4" t="str">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>BusROCOF_4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>VSG_4</v>
+      </c>
+      <c r="E5" t="str">
+        <v>38</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="H5" t="str">
+        <v>60</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>BusROCOF_5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>SG_1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>31</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="H6" t="str">
+        <v>60</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>BusROCOF_6</v>
+      </c>
+      <c r="D7" t="str">
+        <v>SG_2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>35</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="H7" t="str">
+        <v>60</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0.001</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3827,7 +4045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3892,7 +4110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4743,10 +4961,10 @@
         <v>1.4</v>
       </c>
       <c r="K2" t="str">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L2" t="str">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2" t="str">
         <v>1.83816</v>
@@ -4799,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" t="str">
         <v>1.5</v>
@@ -5026,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="L7" t="str">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M7" t="str">
         <v>7.125456</v>
@@ -5138,7 +5356,7 @@
         <v>7</v>
       </c>
       <c r="L9" t="str">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M9" t="str">
         <v>5.321616</v>
@@ -5191,10 +5409,10 @@
         <v>1.428</v>
       </c>
       <c r="K10" t="str">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L10" t="str">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M10" t="str">
         <v>10.0173</v>
@@ -5323,7 +5541,7 @@
         <v>0.5617</v>
       </c>
       <c r="K2" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L2" t="str">
         <v>3</v>
@@ -9768,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O2" t="str">
         <v>0.1</v>
@@ -9845,7 +10063,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="str">
         <v>0.1</v>
@@ -9922,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="str">
         <v>0.1</v>
@@ -9999,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="str">
         <v>0.1</v>

--- a/bshe/VIS_opf/ieee39_vis_base.xlsx
+++ b/bshe/VIS_opf/ieee39_vis_base.xlsx
@@ -10060,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3" t="str">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="O3" t="str">
         <v>0.1</v>

--- a/bshe/VIS_opf/ieee39_vis_base.xlsx
+++ b/bshe/VIS_opf/ieee39_vis_base.xlsx
@@ -9370,7 +9370,7 @@
         <v>60</v>
       </c>
       <c r="K2" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L2" t="str">
         <v>8.06</v>
@@ -9456,7 +9456,7 @@
         <v>60</v>
       </c>
       <c r="K3" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="str">
         <v>7.16</v>
@@ -9542,7 +9542,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="str">
         <v>8.72</v>
@@ -9628,7 +9628,7 @@
         <v>60</v>
       </c>
       <c r="K5" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="str">
         <v>5.2</v>
@@ -9714,7 +9714,7 @@
         <v>60</v>
       </c>
       <c r="K6" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="str">
         <v>8.28</v>
@@ -9800,7 +9800,7 @@
         <v>60</v>
       </c>
       <c r="K7" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L7" t="str">
         <v>10</v>
@@ -9983,10 +9983,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O2" t="str">
         <v>0.1</v>
@@ -10060,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N3" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3" t="str">
         <v>0.1</v>
@@ -10137,10 +10137,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O4" t="str">
         <v>0.1</v>
@@ -10214,10 +10214,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O5" t="str">
         <v>0.1</v>

--- a/bshe/VIS_opf/ieee39_vis_base.xlsx
+++ b/bshe/VIS_opf/ieee39_vis_base.xlsx
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="str">
         <v>1</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="str">
         <v>1</v>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="str">
         <v>1</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="str">
         <v>1</v>
